--- a/data/pca/factorExposure/factorExposure_2013-04-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-04-12.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-4.153693728914882e-05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001879244495435457</v>
+      </c>
+      <c r="C2">
+        <v>0.03338165654480901</v>
+      </c>
+      <c r="D2">
+        <v>0.00492891742775511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001984017345468592</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.005891446664002286</v>
+      </c>
+      <c r="C4">
+        <v>0.08565921709218373</v>
+      </c>
+      <c r="D4">
+        <v>0.07849407761409809</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0009460378214180771</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01329551675647913</v>
+      </c>
+      <c r="C6">
+        <v>0.1109077646114597</v>
+      </c>
+      <c r="D6">
+        <v>0.03212545814959319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.00203361826920984</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004609662926819628</v>
+      </c>
+      <c r="C7">
+        <v>0.05598127271694425</v>
+      </c>
+      <c r="D7">
+        <v>0.03156631617567514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.000142538559549847</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005595365454069216</v>
+      </c>
+      <c r="C8">
+        <v>0.0378062546325414</v>
+      </c>
+      <c r="D8">
+        <v>0.0404660356303587</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.004067159824675736</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004010705573598471</v>
+      </c>
+      <c r="C9">
+        <v>0.07158964158370018</v>
+      </c>
+      <c r="D9">
+        <v>0.07106838928928344</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.004423525708966131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005169252378539133</v>
+      </c>
+      <c r="C10">
+        <v>0.06109453336358094</v>
+      </c>
+      <c r="D10">
+        <v>-0.2035124877237581</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.003522121589560878</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005233582936398915</v>
+      </c>
+      <c r="C11">
+        <v>0.08066666260911218</v>
+      </c>
+      <c r="D11">
+        <v>0.06324018879372338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0001056960246040492</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003860509592936312</v>
+      </c>
+      <c r="C12">
+        <v>0.06435227429311727</v>
+      </c>
+      <c r="D12">
+        <v>0.04732781071857817</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003093737180105181</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008498680609264758</v>
+      </c>
+      <c r="C13">
+        <v>0.06835610401491772</v>
+      </c>
+      <c r="D13">
+        <v>0.06420154278346234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001679423878704621</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001414318991813785</v>
+      </c>
+      <c r="C14">
+        <v>0.04697272937789956</v>
+      </c>
+      <c r="D14">
+        <v>0.01012709262226436</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0009981807819528354</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005830288209243794</v>
+      </c>
+      <c r="C15">
+        <v>0.04248865522338638</v>
+      </c>
+      <c r="D15">
+        <v>0.03084118305553385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.001718640072391283</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004803041376139813</v>
+      </c>
+      <c r="C16">
+        <v>0.06635535095244237</v>
+      </c>
+      <c r="D16">
+        <v>0.0471482760607304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0002195062823551538</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008771670096784815</v>
+      </c>
+      <c r="C20">
+        <v>0.06793010811185288</v>
+      </c>
+      <c r="D20">
+        <v>0.04999446900581266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.004975574249973215</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009854660341128578</v>
+      </c>
+      <c r="C21">
+        <v>0.02361116113208002</v>
+      </c>
+      <c r="D21">
+        <v>0.03534241215167695</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01675546331193905</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.00703448161684373</v>
+      </c>
+      <c r="C22">
+        <v>0.09586624343099716</v>
+      </c>
+      <c r="D22">
+        <v>0.1004501424923661</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01707900284905073</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006850208720066088</v>
+      </c>
+      <c r="C23">
+        <v>0.09671353621512932</v>
+      </c>
+      <c r="D23">
+        <v>0.1009075299350526</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.002258209390724498</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004818436973663519</v>
+      </c>
+      <c r="C24">
+        <v>0.07469941537638626</v>
+      </c>
+      <c r="D24">
+        <v>0.05999110965330391</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.004242808514756574</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002590484969353875</v>
+      </c>
+      <c r="C25">
+        <v>0.0783089192393463</v>
+      </c>
+      <c r="D25">
+        <v>0.06521538801795687</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.006304841300623727</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003540565333944385</v>
+      </c>
+      <c r="C26">
+        <v>0.04313978930681888</v>
+      </c>
+      <c r="D26">
+        <v>0.0266922889930665</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.005433972405176678</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.001031527952678397</v>
+      </c>
+      <c r="C28">
+        <v>0.1123534083755703</v>
+      </c>
+      <c r="D28">
+        <v>-0.3152493697550464</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001487287681939226</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.002998440596889282</v>
+      </c>
+      <c r="C29">
+        <v>0.05021327581462286</v>
+      </c>
+      <c r="D29">
+        <v>0.00565986053942279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.00387834358822044</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.00849594856921649</v>
+      </c>
+      <c r="C30">
+        <v>0.141776513072369</v>
+      </c>
+      <c r="D30">
+        <v>0.1010789093359404</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0001534763033639942</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006020590988896002</v>
+      </c>
+      <c r="C31">
+        <v>0.04611968653710857</v>
+      </c>
+      <c r="D31">
+        <v>0.0313647167046988</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0009875080235413323</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003982002340158806</v>
+      </c>
+      <c r="C32">
+        <v>0.04125682808632822</v>
+      </c>
+      <c r="D32">
+        <v>0.01907763848071773</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.003358694904258885</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007789974461773806</v>
+      </c>
+      <c r="C33">
+        <v>0.08589234627206417</v>
+      </c>
+      <c r="D33">
+        <v>0.0736557222329324</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.00471712053919466</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003649150828157069</v>
+      </c>
+      <c r="C34">
+        <v>0.05793491995053137</v>
+      </c>
+      <c r="D34">
+        <v>0.04800717202622273</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.002790168443293819</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004695732682375043</v>
+      </c>
+      <c r="C35">
+        <v>0.0399722802894007</v>
+      </c>
+      <c r="D35">
+        <v>0.01355025620379812</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004182426420072134</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001397586277098306</v>
+      </c>
+      <c r="C36">
+        <v>0.02543221616077083</v>
+      </c>
+      <c r="D36">
+        <v>0.02152565587591053</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002040896300778023</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009402615525290278</v>
+      </c>
+      <c r="C38">
+        <v>0.03454635033226081</v>
+      </c>
+      <c r="D38">
+        <v>0.02111382284631185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01331346543184246</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001204933612004729</v>
+      </c>
+      <c r="C39">
+        <v>0.1173831654270274</v>
+      </c>
+      <c r="D39">
+        <v>0.07779453146228957</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.00961285459782883</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.001799917014519727</v>
+      </c>
+      <c r="C40">
+        <v>0.08758830638182623</v>
+      </c>
+      <c r="D40">
+        <v>0.01213815731288214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0004281387886226754</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007100499872387406</v>
+      </c>
+      <c r="C41">
+        <v>0.03762860795096881</v>
+      </c>
+      <c r="D41">
+        <v>0.03586115618181564</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003275201776525545</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003430537729903873</v>
+      </c>
+      <c r="C43">
+        <v>0.05110329928433063</v>
+      </c>
+      <c r="D43">
+        <v>0.0252957187358621</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.002959665473585592</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.00324528183681281</v>
+      </c>
+      <c r="C44">
+        <v>0.1135923773143016</v>
+      </c>
+      <c r="D44">
+        <v>0.07373400708676224</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001893466658982702</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002253880184476538</v>
+      </c>
+      <c r="C46">
+        <v>0.03562612663999393</v>
+      </c>
+      <c r="D46">
+        <v>0.02883542393007458</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0008306243521965692</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002636978290687021</v>
+      </c>
+      <c r="C47">
+        <v>0.03808349212047423</v>
+      </c>
+      <c r="D47">
+        <v>0.02403085244517114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003142019071652484</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006302018389509842</v>
+      </c>
+      <c r="C48">
+        <v>0.02925912381483045</v>
+      </c>
+      <c r="D48">
+        <v>0.03364706161671075</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01458048781080545</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01428177921141052</v>
+      </c>
+      <c r="C49">
+        <v>0.1803687165563533</v>
+      </c>
+      <c r="D49">
+        <v>0.01433861570900464</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.00137129360905792</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003419904754418309</v>
+      </c>
+      <c r="C50">
+        <v>0.04438794298948898</v>
+      </c>
+      <c r="D50">
+        <v>0.03446257850145045</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.001264591385188526</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004238720940611874</v>
+      </c>
+      <c r="C51">
+        <v>0.02365813662137215</v>
+      </c>
+      <c r="D51">
+        <v>0.0275738697597898</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.000244723469784265</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.0198067506311357</v>
+      </c>
+      <c r="C53">
+        <v>0.168485087403286</v>
+      </c>
+      <c r="D53">
+        <v>0.04006445375674105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.0007642082388453533</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008576517240103065</v>
+      </c>
+      <c r="C54">
+        <v>0.05689157712668874</v>
+      </c>
+      <c r="D54">
+        <v>0.04161949710528765</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004112609106094963</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.008969188968991083</v>
+      </c>
+      <c r="C55">
+        <v>0.1083278119164793</v>
+      </c>
+      <c r="D55">
+        <v>0.04753011813263885</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002733871477536017</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01934399560800975</v>
+      </c>
+      <c r="C56">
+        <v>0.1759411473337565</v>
+      </c>
+      <c r="D56">
+        <v>0.03958596853370606</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007902348617549858</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01917118996942413</v>
+      </c>
+      <c r="C58">
+        <v>0.1084336215919743</v>
+      </c>
+      <c r="D58">
+        <v>0.05627895375536122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006840547922476264</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.008798815861919483</v>
+      </c>
+      <c r="C59">
+        <v>0.1608169187801847</v>
+      </c>
+      <c r="D59">
+        <v>-0.2996355869088859</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.004675508857071103</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02288819242421723</v>
+      </c>
+      <c r="C60">
+        <v>0.2224078991526739</v>
+      </c>
+      <c r="D60">
+        <v>0.02456518346715872</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01509548667141166</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002212807000144098</v>
+      </c>
+      <c r="C61">
+        <v>0.09567108202019113</v>
+      </c>
+      <c r="D61">
+        <v>0.05993608776645713</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1705289305159831</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1436549081179914</v>
+      </c>
+      <c r="C62">
+        <v>0.08636392415848809</v>
+      </c>
+      <c r="D62">
+        <v>0.04663906289892811</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001659276287336873</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006236889774576737</v>
+      </c>
+      <c r="C63">
+        <v>0.05876657111716484</v>
+      </c>
+      <c r="D63">
+        <v>0.02606713995895334</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.005682637634107134</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01464612078344329</v>
+      </c>
+      <c r="C64">
+        <v>0.1050257365019943</v>
+      </c>
+      <c r="D64">
+        <v>0.06233989801226027</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.001569692365206563</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01695730750848499</v>
+      </c>
+      <c r="C65">
+        <v>0.1189061247208288</v>
+      </c>
+      <c r="D65">
+        <v>0.01820871944332842</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.008782031999206401</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.012099452116607</v>
+      </c>
+      <c r="C66">
+        <v>0.1592692445589622</v>
+      </c>
+      <c r="D66">
+        <v>0.1176110775592547</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003402828977981558</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01541952266675327</v>
+      </c>
+      <c r="C67">
+        <v>0.06479764849821759</v>
+      </c>
+      <c r="D67">
+        <v>0.03060217769228043</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006653852135317112</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0005745905667154393</v>
+      </c>
+      <c r="C68">
+        <v>0.0913820836725335</v>
+      </c>
+      <c r="D68">
+        <v>-0.2543291584432977</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002914085099813435</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005726931205343573</v>
+      </c>
+      <c r="C69">
+        <v>0.050356181422448</v>
+      </c>
+      <c r="D69">
+        <v>0.03919081606770734</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-1.333169452460425e-05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001777711905469876</v>
+      </c>
+      <c r="C70">
+        <v>0.002232835808170886</v>
+      </c>
+      <c r="D70">
+        <v>0.001145879274964979</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.001512826657306838</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005763321257032715</v>
+      </c>
+      <c r="C71">
+        <v>0.1011568682390757</v>
+      </c>
+      <c r="D71">
+        <v>-0.293226256088281</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.005758319347356483</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01510886355543597</v>
+      </c>
+      <c r="C72">
+        <v>0.1502127989080352</v>
+      </c>
+      <c r="D72">
+        <v>0.02000356633448357</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01179260700029245</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02846963406508188</v>
+      </c>
+      <c r="C73">
+        <v>0.2736324038303494</v>
+      </c>
+      <c r="D73">
+        <v>0.04526760209307618</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004977661256934233</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001010364367500024</v>
+      </c>
+      <c r="C74">
+        <v>0.1046481881253992</v>
+      </c>
+      <c r="D74">
+        <v>0.04348123390899384</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.004008369548796908</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01044171208157669</v>
+      </c>
+      <c r="C75">
+        <v>0.1317020365153255</v>
+      </c>
+      <c r="D75">
+        <v>0.02535246476842349</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009137473576183375</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02084438727376992</v>
+      </c>
+      <c r="C76">
+        <v>0.1501513795282468</v>
+      </c>
+      <c r="D76">
+        <v>0.06695618770199656</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-9.835101053777776e-05</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02396279696959012</v>
+      </c>
+      <c r="C77">
+        <v>0.1352264158216105</v>
+      </c>
+      <c r="D77">
+        <v>0.0522075443102041</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.001438096118372699</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01404990452665252</v>
+      </c>
+      <c r="C78">
+        <v>0.09410216981772773</v>
+      </c>
+      <c r="D78">
+        <v>0.06964329990001501</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02418654304917645</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03660869176656692</v>
+      </c>
+      <c r="C79">
+        <v>0.1577629551596747</v>
+      </c>
+      <c r="D79">
+        <v>0.03205292313865745</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.004824927153399368</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01028909128489102</v>
+      </c>
+      <c r="C80">
+        <v>0.04102895982925191</v>
+      </c>
+      <c r="D80">
+        <v>0.03227243723242559</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0006438473076828757</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01445491262759062</v>
+      </c>
+      <c r="C81">
+        <v>0.1274717507570742</v>
+      </c>
+      <c r="D81">
+        <v>0.05098919302880252</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005371404886592824</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01906279629856313</v>
+      </c>
+      <c r="C82">
+        <v>0.1439907839362363</v>
+      </c>
+      <c r="D82">
+        <v>0.04233891333767881</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.008818993343479738</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009889734778245816</v>
+      </c>
+      <c r="C83">
+        <v>0.05700876062862596</v>
+      </c>
+      <c r="D83">
+        <v>0.05025491994191043</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01251000204797126</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01146802806447368</v>
+      </c>
+      <c r="C84">
+        <v>0.03630262057590726</v>
+      </c>
+      <c r="D84">
+        <v>-0.007920023265450644</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01497094172857559</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02766409064195252</v>
+      </c>
+      <c r="C85">
+        <v>0.1312309017404877</v>
+      </c>
+      <c r="D85">
+        <v>0.04692039944867623</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.001239058876419135</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005355034469441088</v>
+      </c>
+      <c r="C86">
+        <v>0.04984555905499324</v>
+      </c>
+      <c r="D86">
+        <v>0.02023164516578196</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.005986018326732814</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.009866203641063756</v>
+      </c>
+      <c r="C87">
+        <v>0.1313049246865788</v>
+      </c>
+      <c r="D87">
+        <v>0.06915922582921323</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.0131182931191948</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.003115988063712518</v>
+      </c>
+      <c r="C88">
+        <v>0.06767010416621007</v>
+      </c>
+      <c r="D88">
+        <v>0.01432742903234382</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01530734104080528</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001765893297591297</v>
+      </c>
+      <c r="C89">
+        <v>0.1504012476061309</v>
+      </c>
+      <c r="D89">
+        <v>-0.3477974050769722</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002888468123530694</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006589554305688024</v>
+      </c>
+      <c r="C90">
+        <v>0.1259515850997268</v>
+      </c>
+      <c r="D90">
+        <v>-0.3220262434573197</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0006425323936445472</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.009957032863261231</v>
+      </c>
+      <c r="C91">
+        <v>0.1035595218419807</v>
+      </c>
+      <c r="D91">
+        <v>0.02157595475016856</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.00872212148547117</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0002090988173618421</v>
+      </c>
+      <c r="C92">
+        <v>0.138993728518969</v>
+      </c>
+      <c r="D92">
+        <v>-0.3364448900998021</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0008517022124977022</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004615632408255503</v>
+      </c>
+      <c r="C93">
+        <v>0.1095647452828033</v>
+      </c>
+      <c r="D93">
+        <v>-0.3165406919072135</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003145759081973198</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02194755654796138</v>
+      </c>
+      <c r="C94">
+        <v>0.1545318094933015</v>
+      </c>
+      <c r="D94">
+        <v>0.03898730594882283</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004905090519458232</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01569043894488316</v>
+      </c>
+      <c r="C95">
+        <v>0.1267821311765354</v>
+      </c>
+      <c r="D95">
+        <v>0.06093986480915747</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.001366398015571954</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03362806441927151</v>
+      </c>
+      <c r="C97">
+        <v>0.1875749439577701</v>
+      </c>
+      <c r="D97">
+        <v>0.01468986797129363</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.004211079798112633</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03556265475157507</v>
+      </c>
+      <c r="C98">
+        <v>0.2488807338076442</v>
+      </c>
+      <c r="D98">
+        <v>0.05061841831252569</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.983367079912824</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9829499333994236</v>
+      </c>
+      <c r="C99">
+        <v>-0.1095652323049938</v>
+      </c>
+      <c r="D99">
+        <v>-0.02802904472656027</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001443741856070382</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003042959188972769</v>
+      </c>
+      <c r="C101">
+        <v>0.05024562377811119</v>
+      </c>
+      <c r="D101">
+        <v>0.006080197767363403</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
